--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -540,7 +540,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -548,34 +548,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="41.171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.69921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.6796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="41.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3561,273 +3562,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08534564-4EB8-44D0-B1DF-BBF0534A7FE7}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A00DC27D-D8E3-4191-8876-62A6EBEB31B4}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{255AF044-ECDD-4AB2-9485-B5C28E2E1F4B}"/>
 </file>
--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -565,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3001,19 +3001,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>9</v>
@@ -3021,62 +3021,62 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
@@ -3084,7 +3084,7 @@
         <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>11</v>
@@ -3093,7 +3093,7 @@
         <v>151</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>152</v>
@@ -3104,7 +3104,7 @@
         <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>11</v>
@@ -3113,10 +3113,10 @@
         <v>151</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128">
@@ -3124,7 +3124,7 @@
         <v>150</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>11</v>
@@ -3133,7 +3133,7 @@
         <v>151</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>152</v>
@@ -3144,7 +3144,7 @@
         <v>150</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>11</v>
@@ -3153,10 +3153,10 @@
         <v>151</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130">
@@ -3164,7 +3164,7 @@
         <v>150</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>11</v>
@@ -3173,10 +3173,10 @@
         <v>151</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131">
@@ -3184,7 +3184,7 @@
         <v>150</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>11</v>
@@ -3193,10 +3193,10 @@
         <v>151</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132">
@@ -3204,7 +3204,7 @@
         <v>150</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>11</v>
@@ -3213,10 +3213,10 @@
         <v>151</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
@@ -3224,7 +3224,7 @@
         <v>150</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>11</v>
@@ -3233,10 +3233,10 @@
         <v>151</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134">
@@ -3244,7 +3244,7 @@
         <v>150</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>11</v>
@@ -3253,10 +3253,10 @@
         <v>151</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
@@ -3264,7 +3264,7 @@
         <v>150</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>11</v>
@@ -3273,10 +3273,10 @@
         <v>151</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136">
@@ -3284,7 +3284,7 @@
         <v>150</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>11</v>
@@ -3293,10 +3293,10 @@
         <v>151</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
@@ -3304,7 +3304,7 @@
         <v>150</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>11</v>
@@ -3313,10 +3313,10 @@
         <v>151</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138">
@@ -3324,7 +3324,7 @@
         <v>150</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>11</v>
@@ -3333,10 +3333,10 @@
         <v>151</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
@@ -3344,7 +3344,7 @@
         <v>150</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>11</v>
@@ -3353,10 +3353,10 @@
         <v>151</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140">
@@ -3364,7 +3364,7 @@
         <v>150</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>11</v>
@@ -3373,10 +3373,10 @@
         <v>151</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141">
@@ -3384,7 +3384,7 @@
         <v>150</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>11</v>
@@ -3393,7 +3393,7 @@
         <v>151</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>152</v>
@@ -3404,7 +3404,7 @@
         <v>150</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>11</v>
@@ -3413,10 +3413,10 @@
         <v>151</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143">
@@ -3424,7 +3424,7 @@
         <v>150</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>11</v>
@@ -3433,7 +3433,7 @@
         <v>151</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>152</v>
@@ -3444,7 +3444,7 @@
         <v>150</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>11</v>
@@ -3453,7 +3453,7 @@
         <v>151</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>152</v>
@@ -3461,62 +3461,62 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148">
@@ -3524,16 +3524,16 @@
         <v>153</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>9</v>
@@ -3544,18 +3544,78 @@
         <v>153</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E152" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="F152" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Certificazione di cittadinanza del genitore</t>
+  </si>
+  <si>
+    <t>Allegato aggiuntivo</t>
   </si>
   <si>
     <t>Formula</t>
@@ -565,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -701,13 +704,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -721,13 +724,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -741,7 +744,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -761,7 +764,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
@@ -781,7 +784,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -801,7 +804,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -821,7 +824,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -840,100 +843,100 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -941,19 +944,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -961,19 +964,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -981,19 +984,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -1001,19 +1004,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -1021,19 +1024,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -1041,19 +1044,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -1061,19 +1064,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -1081,59 +1084,59 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -1141,19 +1144,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1161,19 +1164,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1181,19 +1184,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1201,19 +1204,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1221,19 +1224,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1241,19 +1244,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1261,19 +1264,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1281,19 +1284,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1301,79 +1304,79 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1381,19 +1384,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1401,19 +1404,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1421,19 +1424,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1441,19 +1444,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1461,19 +1464,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1481,19 +1484,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1501,19 +1504,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1521,59 +1524,59 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1581,19 +1584,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1601,19 +1604,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1621,19 +1624,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1641,19 +1644,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1661,19 +1664,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1681,19 +1684,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1701,19 +1704,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1721,19 +1724,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1741,19 +1744,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1761,19 +1764,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1781,19 +1784,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1801,19 +1804,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1821,19 +1824,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1841,19 +1844,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1861,19 +1864,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1881,19 +1884,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1901,59 +1904,59 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1961,19 +1964,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1981,179 +1984,179 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2161,19 +2164,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2181,19 +2184,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2201,19 +2204,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2221,19 +2224,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2241,19 +2244,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2261,19 +2264,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2281,19 +2284,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2301,19 +2304,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2321,19 +2324,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2341,19 +2344,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2361,19 +2364,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2381,19 +2384,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2401,19 +2404,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2421,59 +2424,59 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2481,19 +2484,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2501,19 +2504,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2521,19 +2524,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2541,7 +2544,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>121</v>
@@ -2550,10 +2553,10 @@
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2561,19 +2564,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2581,19 +2584,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2601,99 +2604,99 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -2701,19 +2704,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>9</v>
@@ -2721,7 +2724,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>133</v>
@@ -2730,10 +2733,10 @@
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -2741,19 +2744,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>9</v>
@@ -2761,7 +2764,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>135</v>
@@ -2770,18 +2773,18 @@
         <v>11</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>136</v>
@@ -2790,18 +2793,18 @@
         <v>11</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>137</v>
@@ -2810,18 +2813,18 @@
         <v>11</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>138</v>
@@ -2830,18 +2833,18 @@
         <v>11</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>139</v>
@@ -2850,38 +2853,38 @@
         <v>11</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>141</v>
@@ -2890,10 +2893,10 @@
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>9</v>
@@ -2901,19 +2904,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -2921,7 +2924,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>143</v>
@@ -2930,18 +2933,18 @@
         <v>11</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>144</v>
@@ -2950,18 +2953,18 @@
         <v>11</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>145</v>
@@ -2970,18 +2973,18 @@
         <v>11</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>146</v>
@@ -2990,50 +2993,50 @@
         <v>11</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>9</v>
@@ -3041,19 +3044,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>9</v>
@@ -3061,19 +3064,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -3081,519 +3084,519 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F131" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F137" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F139" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F141" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F143" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F144" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F145" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F146" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F147" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>9</v>
@@ -3601,21 +3604,41 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E152" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F152" s="2" t="s">
+      <c r="C153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -59,7 +59,7 @@
     <t>Certificazione di cittadinanza del genitore</t>
   </si>
   <si>
-    <t>Allegato aggiuntivo</t>
+    <t>Allegato generico</t>
   </si>
   <si>
     <t>Formula</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>{evento.idRiconoscimentoSentenza,in,(2,3)}</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -230,6 +236,9 @@
     <t>evento.padre</t>
   </si>
   <si>
+    <t>{evento.idRiconoscimentoSentenza,in,(1,4)}</t>
+  </si>
+  <si>
     <t>Riconoscimento Padre - Trascrizioni Nascita</t>
   </si>
   <si>
@@ -242,6 +251,9 @@
     <t>idAnsc</t>
   </si>
   <si>
+    <t>{evento.idRiconoscimentoSentenza,in,(1,3,4)}</t>
+  </si>
+  <si>
     <t>Provincia registrazione</t>
   </si>
   <si>
@@ -320,6 +332,9 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>{evento.idRiconoscimentoSentenza,in,(1,2,4)}</t>
+  </si>
+  <si>
     <t>Estremi documento</t>
   </si>
   <si>
@@ -362,12 +377,18 @@
     <t>evento.riconoscimentoMadre.autorizzazione</t>
   </si>
   <si>
+    <t>{evento.idRiconoscimentoSentenza,in,(1,2,3)}</t>
+  </si>
+  <si>
     <t>Riconoscimento Madre - Trascrizioni Nascita</t>
   </si>
   <si>
     <t>evento.riconoscimentoMadre.atto</t>
   </si>
   <si>
+    <t>{evento.idRiconoscimentoSentenza,in,(2,3,4)}</t>
+  </si>
+  <si>
     <t>Formazione atto</t>
   </si>
   <si>
@@ -377,6 +398,9 @@
     <t>evento</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -474,6 +498,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -568,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -580,6 +607,7 @@
     <col min="4" max="4" width="41.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -601,265 +629,307 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -881,2765 +951,3182 @@
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,61 +32,64 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Ricevuta pagamento contributo di 250,00</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto estero di nascita originale o copia autentica</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'interessato</t>
+  </si>
+  <si>
+    <t>Copia dell'atto di riconoscimento</t>
+  </si>
+  <si>
+    <t>Certificazione di cittadinanza del genitore</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Ricevuta pagamento contributo di 250,00</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto estero di nascita originale o copia autentica</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
-  </si>
-  <si>
-    <t>Copia dell'atto di riconoscimento</t>
-  </si>
-  <si>
-    <t>Certificazione di cittadinanza del genitore</t>
-  </si>
-  <si>
-    <t>Allegato generico</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Generalità madre</t>
@@ -952,3181 +955,3181 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -104,7 +104,7 @@
     <t>cognome</t>
   </si>
   <si>
-    <t>{evento.idRiconoscimentoSentenza,in,(2,3)}</t>
+    <t>evento.idRiconoscimentoSentenza,in,(2,3)</t>
   </si>
   <si>
     <t>Nome</t>
@@ -239,7 +239,7 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>{evento.idRiconoscimentoSentenza,in,(1,4)}</t>
+    <t>evento.idRiconoscimentoSentenza,in,(1,4)</t>
   </si>
   <si>
     <t>Riconoscimento Padre - Trascrizioni Nascita</t>
@@ -254,7 +254,7 @@
     <t>idAnsc</t>
   </si>
   <si>
-    <t>{evento.idRiconoscimentoSentenza,in,(1,3,4)}</t>
+    <t>evento.idRiconoscimentoSentenza,in,(1,3,4)</t>
   </si>
   <si>
     <t>Provincia registrazione</t>
@@ -335,7 +335,7 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
-    <t>{evento.idRiconoscimentoSentenza,in,(1,2,4)}</t>
+    <t>evento.idRiconoscimentoSentenza,in,(1,2,4)</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -380,7 +380,7 @@
     <t>evento.riconoscimentoMadre.autorizzazione</t>
   </si>
   <si>
-    <t>{evento.idRiconoscimentoSentenza,in,(1,2,3)}</t>
+    <t>evento.idRiconoscimentoSentenza,in,(1,2,3)</t>
   </si>
   <si>
     <t>Riconoscimento Madre - Trascrizioni Nascita</t>
@@ -389,7 +389,7 @@
     <t>evento.riconoscimentoMadre.atto</t>
   </si>
   <si>
-    <t>{evento.idRiconoscimentoSentenza,in,(2,3,4)}</t>
+    <t>evento.idRiconoscimentoSentenza,in,(2,3,4)</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -503,7 +503,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -610,7 +610,7 @@
     <col min="4" max="4" width="41.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.88671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="40.5" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -161,6 +161,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -305,22 +311,22 @@
     <t>dataformazione</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Estremi ente - sentenza riconoscimento paterno</t>
@@ -598,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1196,7 +1202,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>28</v>
@@ -1288,7 +1294,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>28</v>
@@ -1403,7 +1409,7 @@
         <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>28</v>
@@ -1466,1528 +1472,1528 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="E60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2996,179 +3002,179 @@
         <v>139</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>146</v>
@@ -3177,21 +3183,21 @@
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>147</v>
@@ -3200,21 +3206,21 @@
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>148</v>
@@ -3223,21 +3229,21 @@
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>149</v>
@@ -3246,890 +3252,982 @@
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="G149" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E153" s="2" t="s">
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>129</v>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -509,7 +509,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -616,7 +619,7 @@
     <col min="4" max="4" width="41.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="40.5" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4097,7 +4100,7 @@
         <v>162</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4117,19 +4120,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4140,19 +4143,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>20</v>
@@ -4163,10 +4166,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4175,7 +4178,7 @@
         <v>130</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4186,10 +4189,10 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4198,7 +4201,7 @@
         <v>130</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4209,10 +4212,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4221,7 +4224,7 @@
         <v>130</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4100,7 +4097,7 @@
         <v>162</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4120,19 +4117,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4143,19 +4140,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>20</v>
@@ -4166,10 +4163,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4178,7 +4175,7 @@
         <v>130</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4189,10 +4186,10 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4201,7 +4198,7 @@
         <v>130</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4212,10 +4209,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4224,7 +4221,7 @@
         <v>130</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -510,6 +510,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4097,7 +4100,7 @@
         <v>162</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4117,19 +4120,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4140,19 +4143,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>20</v>
@@ -4163,10 +4166,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4175,7 +4178,7 @@
         <v>130</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4186,10 +4189,10 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4198,7 +4201,7 @@
         <v>130</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4209,10 +4212,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4221,7 +4224,7 @@
         <v>130</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="189">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,36 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Generalità padre</t>
@@ -607,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -617,7 +647,7 @@
     <col min="2" max="2" width="45.6796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="41.16796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1498,1442 +1528,1442 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="F86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>98</v>
@@ -2942,1295 +2972,1617 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E157" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>131</v>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="189">
   <si>
     <t>Sezione</t>
   </si>
@@ -113,6 +113,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -167,13 +173,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -492,12 +498,6 @@
   </si>
   <si>
     <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -637,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1051,7 +1051,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
@@ -1143,7 +1143,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>28</v>
@@ -1258,7 +1258,7 @@
         <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>28</v>
@@ -1350,7 +1350,7 @@
         <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>28</v>
@@ -1465,7 +1465,7 @@
         <v>69</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>28</v>
@@ -1534,7 +1534,7 @@
         <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>28</v>
@@ -1643,1666 +1643,1666 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="E72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="E110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3311,248 +3311,248 @@
         <v>151</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>160</v>
@@ -3561,21 +3561,21 @@
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>161</v>
@@ -3584,430 +3584,430 @@
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147">
@@ -4015,19 +4015,19 @@
         <v>172</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>175</v>
@@ -4038,7 +4038,7 @@
         <v>172</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4047,7 +4047,7 @@
         <v>173</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4061,16 +4061,16 @@
         <v>172</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4084,16 +4084,16 @@
         <v>172</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4107,19 +4107,19 @@
         <v>172</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>175</v>
@@ -4130,16 +4130,16 @@
         <v>172</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4153,19 +4153,19 @@
         <v>172</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>175</v>
@@ -4176,7 +4176,7 @@
         <v>172</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
@@ -4185,10 +4185,10 @@
         <v>173</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>175</v>
@@ -4199,19 +4199,19 @@
         <v>172</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>175</v>
@@ -4222,16 +4222,16 @@
         <v>172</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4245,19 +4245,19 @@
         <v>172</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>175</v>
@@ -4268,19 +4268,19 @@
         <v>172</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>175</v>
@@ -4291,16 +4291,16 @@
         <v>172</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4314,19 +4314,19 @@
         <v>172</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>175</v>
@@ -4337,16 +4337,16 @@
         <v>172</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4360,19 +4360,19 @@
         <v>172</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>175</v>
@@ -4383,7 +4383,7 @@
         <v>172</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
@@ -4392,10 +4392,10 @@
         <v>173</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>175</v>
@@ -4406,19 +4406,19 @@
         <v>172</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>175</v>
@@ -4429,16 +4429,16 @@
         <v>172</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4452,19 +4452,19 @@
         <v>172</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>175</v>
@@ -4472,94 +4472,94 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171">
@@ -4567,22 +4567,114 @@
         <v>177</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E171" s="2" t="s">
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>141</v>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="191">
   <si>
     <t>Sezione</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -637,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1327,7 +1333,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>28</v>
@@ -1350,7 +1356,7 @@
         <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>28</v>
@@ -1488,7 +1494,7 @@
         <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>28</v>
@@ -1557,7 +1563,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>28</v>
@@ -1666,1689 +1672,1689 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="E74" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3357,202 +3363,202 @@
         <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>160</v>
@@ -3561,21 +3567,21 @@
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>161</v>
@@ -3584,1097 +3590,1189 @@
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F170" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G170" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E175" s="2" t="s">
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>143</v>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="193">
   <si>
     <t>Sezione</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -643,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1517,7 +1523,7 @@
         <v>73</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>28</v>
@@ -1586,7 +1592,7 @@
         <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>28</v>
@@ -1695,1712 +1701,1712 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="E76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="E114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -3409,202 +3415,202 @@
         <v>155</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>162</v>
@@ -3613,21 +3619,21 @@
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>163</v>
@@ -3636,159 +3642,159 @@
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>166</v>
@@ -3797,21 +3803,21 @@
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>167</v>
@@ -3820,21 +3826,21 @@
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>168</v>
@@ -3843,21 +3849,21 @@
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>169</v>
@@ -3866,21 +3872,21 @@
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>170</v>
@@ -3889,890 +3895,959 @@
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G174" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E179" s="2" t="s">
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>145</v>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="195">
   <si>
     <t>Sezione</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -649,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2696,7 +2702,7 @@
         <v>119</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>96</v>
@@ -2713,53 +2719,53 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>128</v>
@@ -2768,7 +2774,7 @@
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>129</v>
@@ -2777,12 +2783,12 @@
         <v>18</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>130</v>
@@ -2791,21 +2797,21 @@
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>132</v>
@@ -2814,21 +2820,21 @@
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>134</v>
@@ -2837,21 +2843,21 @@
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>136</v>
@@ -2860,67 +2866,67 @@
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>128</v>
@@ -2929,7 +2935,7 @@
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>129</v>
@@ -2938,12 +2944,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>130</v>
@@ -2952,7 +2958,7 @@
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>131</v>
@@ -2961,12 +2967,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>132</v>
@@ -2975,7 +2981,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>133</v>
@@ -2984,12 +2990,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>134</v>
@@ -2998,7 +3004,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>135</v>
@@ -3007,12 +3013,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>136</v>
@@ -3021,7 +3027,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>137</v>
@@ -3030,429 +3036,429 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="E116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3461,202 +3467,202 @@
         <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>164</v>
@@ -3665,21 +3671,21 @@
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>165</v>
@@ -3688,159 +3694,159 @@
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>168</v>
@@ -3849,21 +3855,21 @@
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>169</v>
@@ -3872,21 +3878,21 @@
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>170</v>
@@ -3895,21 +3901,21 @@
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>171</v>
@@ -3918,21 +3924,21 @@
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>172</v>
@@ -3941,913 +3947,959 @@
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E182" s="2" t="s">
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>147</v>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="198">
   <si>
     <t>Sezione</t>
   </si>
@@ -546,6 +546,15 @@
   </si>
   <si>
     <t>riassuntoDichiarazione</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -655,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4194,7 +4203,7 @@
         <v>178</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
@@ -4203,13 +4212,13 @@
         <v>179</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="155">
@@ -4217,22 +4226,22 @@
         <v>178</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156">
@@ -4240,7 +4249,7 @@
         <v>178</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
@@ -4249,13 +4258,13 @@
         <v>179</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157">
@@ -4263,22 +4272,22 @@
         <v>178</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="158">
@@ -4286,22 +4295,22 @@
         <v>178</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159">
@@ -4309,22 +4318,22 @@
         <v>178</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160">
@@ -4332,22 +4341,22 @@
         <v>178</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161">
@@ -4355,7 +4364,7 @@
         <v>178</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
@@ -4364,13 +4373,13 @@
         <v>179</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162">
@@ -4378,7 +4387,7 @@
         <v>178</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
@@ -4387,13 +4396,13 @@
         <v>179</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="163">
@@ -4401,7 +4410,7 @@
         <v>178</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
@@ -4410,13 +4419,13 @@
         <v>179</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164">
@@ -4424,7 +4433,7 @@
         <v>178</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
@@ -4433,13 +4442,13 @@
         <v>179</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="165">
@@ -4447,7 +4456,7 @@
         <v>178</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
@@ -4456,449 +4465,725 @@
         <v>179</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E179" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F180" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="G180" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F181" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G181" s="2" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>189</v>
+        <v>61</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F183" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G183" s="2" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F185" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="G185" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
+      <c r="E195" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>149</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -2927,7 +2927,7 @@
         <v>126</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>142</v>
@@ -2950,7 +2950,7 @@
         <v>129</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>142</v>
@@ -2973,7 +2973,7 @@
         <v>131</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>142</v>
@@ -3019,7 +3019,7 @@
         <v>135</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>142</v>
@@ -3065,7 +3065,7 @@
         <v>139</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>142</v>
@@ -4758,7 +4758,7 @@
         <v>53</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>182</v>
@@ -4781,7 +4781,7 @@
         <v>55</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>182</v>
@@ -4790,7 +4790,7 @@
         <v>56</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>184</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="202">
   <si>
     <t>Sezione</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -664,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1124,7 +1136,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>28</v>
@@ -1147,7 +1159,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>28</v>
@@ -1193,7 +1205,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>28</v>
@@ -1216,7 +1228,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
@@ -1308,7 +1320,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>28</v>
@@ -1331,7 +1343,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>28</v>
@@ -1354,7 +1366,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>28</v>
@@ -1377,7 +1389,7 @@
         <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>28</v>
@@ -1561,7 +1573,7 @@
         <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>28</v>
@@ -1584,7 +1596,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>28</v>
@@ -1630,7 +1642,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>28</v>
@@ -1653,7 +1665,7 @@
         <v>83</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>28</v>
@@ -1739,723 +1751,723 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -2464,927 +2476,927 @@
         <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3395,19 +3407,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3418,19 +3430,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3441,10 +3453,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -3453,7 +3465,7 @@
         <v>148</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3464,1034 +3476,1034 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>184</v>
@@ -4499,19 +4511,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4522,19 +4534,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4545,19 +4557,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4568,19 +4580,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4591,19 +4603,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4614,577 +4626,761 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="E192" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="2" t="s">
+      <c r="E193" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E194" s="2" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="E196" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E196" s="2" t="s">
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>149</v>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
